--- a/biology/Botanique/Pterocarpus_angolensis/Pterocarpus_angolensis.xlsx
+++ b/biology/Botanique/Pterocarpus_angolensis/Pterocarpus_angolensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterocarpus angolensis est une espèce d’arbres du genre Pterocarpus et de la famille des Fabaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Pterocarpus angolensis a été décrite par le botaniste suisse Augustin Pyrame de Candolle en 1825[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pterocarpus angolensis a été décrite par le botaniste suisse Augustin Pyrame de Candolle en 1825.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire d'Afrique australe, on le trouve en Angola, au Mozambique, en Namibie, en Afrique du Sud, au Swaziland, en Tanzanie, au Zaïre, au Zimbabwe et en Zambie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire d'Afrique australe, on le trouve en Angola, au Mozambique, en Namibie, en Afrique du Sud, au Swaziland, en Tanzanie, au Zaïre, au Zimbabwe et en Zambie.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a beaucoup d'utilisations pour le bois de Pterocarpus angolensis.
 Son bois brun est résistant aux termites et foreurs, est durable et a un parfum agréable épicé.
